--- a/data/cylinder_radius_10.0/peak_shift/eal_5_restricted_range/offcenter_2/new_bg/0001/model.xlsx
+++ b/data/cylinder_radius_10.0/peak_shift/eal_5_restricted_range/offcenter_2/new_bg/0001/model.xlsx
@@ -11862,7 +11862,7 @@
         <v>5000.0</v>
       </c>
       <c r="M2">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N2">
         <v>0.002</v>
@@ -11918,7 +11918,7 @@
         <v>5000.0</v>
       </c>
       <c r="M3">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N3">
         <v>0.002</v>
@@ -11974,7 +11974,7 @@
         <v>5000.0</v>
       </c>
       <c r="M4">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N4">
         <v>0.002</v>
@@ -12030,7 +12030,7 @@
         <v>5000.0</v>
       </c>
       <c r="M5">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N5">
         <v>0.002</v>
@@ -12086,7 +12086,7 @@
         <v>5000.0</v>
       </c>
       <c r="M6">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N6">
         <v>0.002</v>
@@ -12142,7 +12142,7 @@
         <v>5000.0</v>
       </c>
       <c r="M7">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N7">
         <v>0.002</v>
@@ -12198,7 +12198,7 @@
         <v>5000.0</v>
       </c>
       <c r="M8">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N8">
         <v>0.002</v>
@@ -12254,7 +12254,7 @@
         <v>5000.0</v>
       </c>
       <c r="M9">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N9">
         <v>0.002</v>
@@ -12310,7 +12310,7 @@
         <v>5000.0</v>
       </c>
       <c r="M10">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N10">
         <v>0.002</v>
@@ -12366,7 +12366,7 @@
         <v>5000.0</v>
       </c>
       <c r="M11">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N11">
         <v>0.002</v>
@@ -12422,7 +12422,7 @@
         <v>5000.0</v>
       </c>
       <c r="M12">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N12">
         <v>0.002</v>
@@ -12478,7 +12478,7 @@
         <v>5000.0</v>
       </c>
       <c r="M13">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N13">
         <v>0.002</v>
@@ -12534,7 +12534,7 @@
         <v>5000.0</v>
       </c>
       <c r="M14">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N14">
         <v>0.002</v>
@@ -12590,7 +12590,7 @@
         <v>5000.0</v>
       </c>
       <c r="M15">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N15">
         <v>0.002</v>
@@ -12646,7 +12646,7 @@
         <v>5000.0</v>
       </c>
       <c r="M16">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N16">
         <v>0.002</v>
@@ -12702,7 +12702,7 @@
         <v>5000.0</v>
       </c>
       <c r="M17">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N17">
         <v>0.002</v>
@@ -12758,7 +12758,7 @@
         <v>5000.0</v>
       </c>
       <c r="M18">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N18">
         <v>0.002</v>
@@ -12814,7 +12814,7 @@
         <v>5000.0</v>
       </c>
       <c r="M19">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N19">
         <v>0.002</v>
@@ -12870,7 +12870,7 @@
         <v>5000.0</v>
       </c>
       <c r="M20">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N20">
         <v>0.002</v>
@@ -12926,7 +12926,7 @@
         <v>5000.0</v>
       </c>
       <c r="M21">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N21">
         <v>0.002</v>
@@ -12982,7 +12982,7 @@
         <v>5000.0</v>
       </c>
       <c r="M22">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N22">
         <v>0.002</v>
@@ -13038,7 +13038,7 @@
         <v>5000.0</v>
       </c>
       <c r="M23">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N23">
         <v>0.002</v>
@@ -13094,7 +13094,7 @@
         <v>5000.0</v>
       </c>
       <c r="M24">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N24">
         <v>0.002</v>
@@ -13150,7 +13150,7 @@
         <v>5000.0</v>
       </c>
       <c r="M25">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N25">
         <v>0.002</v>
@@ -13206,7 +13206,7 @@
         <v>5000.0</v>
       </c>
       <c r="M26">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N26">
         <v>0.002</v>
@@ -13262,7 +13262,7 @@
         <v>5000.0</v>
       </c>
       <c r="M27">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N27">
         <v>0.002</v>
@@ -13318,7 +13318,7 @@
         <v>5000.0</v>
       </c>
       <c r="M28">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N28">
         <v>0.002</v>
@@ -13374,7 +13374,7 @@
         <v>5000.0</v>
       </c>
       <c r="M29">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N29">
         <v>0.002</v>
@@ -13430,7 +13430,7 @@
         <v>5000.0</v>
       </c>
       <c r="M30">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N30">
         <v>0.002</v>
@@ -13486,7 +13486,7 @@
         <v>5000.0</v>
       </c>
       <c r="M31">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N31">
         <v>0.002</v>
@@ -13542,7 +13542,7 @@
         <v>5000.0</v>
       </c>
       <c r="M32">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N32">
         <v>0.002</v>
@@ -13598,7 +13598,7 @@
         <v>5000.0</v>
       </c>
       <c r="M33">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N33">
         <v>0.002</v>
@@ -13654,7 +13654,7 @@
         <v>5000.0</v>
       </c>
       <c r="M34">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N34">
         <v>0.002</v>
@@ -13710,7 +13710,7 @@
         <v>5000.0</v>
       </c>
       <c r="M35">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N35">
         <v>0.002</v>
@@ -13766,7 +13766,7 @@
         <v>5000.0</v>
       </c>
       <c r="M36">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N36">
         <v>0.002</v>
@@ -13822,7 +13822,7 @@
         <v>5000.0</v>
       </c>
       <c r="M37">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N37">
         <v>0.002</v>
@@ -13878,7 +13878,7 @@
         <v>5000.0</v>
       </c>
       <c r="M38">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N38">
         <v>0.002</v>
@@ -13934,7 +13934,7 @@
         <v>5000.0</v>
       </c>
       <c r="M39">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N39">
         <v>0.002</v>
@@ -13990,7 +13990,7 @@
         <v>5000.0</v>
       </c>
       <c r="M40">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N40">
         <v>0.002</v>
@@ -14046,7 +14046,7 @@
         <v>5000.0</v>
       </c>
       <c r="M41">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N41">
         <v>0.002</v>
@@ -14102,7 +14102,7 @@
         <v>5000.0</v>
       </c>
       <c r="M42">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N42">
         <v>0.002</v>
@@ -14158,7 +14158,7 @@
         <v>5000.0</v>
       </c>
       <c r="M43">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N43">
         <v>0.002</v>
@@ -14214,7 +14214,7 @@
         <v>5000.0</v>
       </c>
       <c r="M44">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N44">
         <v>0.002</v>
@@ -14270,7 +14270,7 @@
         <v>5000.0</v>
       </c>
       <c r="M45">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N45">
         <v>0.002</v>
@@ -14326,7 +14326,7 @@
         <v>5000.0</v>
       </c>
       <c r="M46">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N46">
         <v>0.002</v>
@@ -14382,7 +14382,7 @@
         <v>5000.0</v>
       </c>
       <c r="M47">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N47">
         <v>0.002</v>
@@ -14438,7 +14438,7 @@
         <v>5000.0</v>
       </c>
       <c r="M48">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N48">
         <v>0.002</v>
@@ -14494,7 +14494,7 @@
         <v>5000.0</v>
       </c>
       <c r="M49">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N49">
         <v>0.002</v>
@@ -14550,7 +14550,7 @@
         <v>5000.0</v>
       </c>
       <c r="M50">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N50">
         <v>0.002</v>
@@ -14606,7 +14606,7 @@
         <v>5000.0</v>
       </c>
       <c r="M51">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N51">
         <v>0.002</v>
@@ -14662,7 +14662,7 @@
         <v>5000.0</v>
       </c>
       <c r="M52">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N52">
         <v>0.002</v>
@@ -14718,7 +14718,7 @@
         <v>5000.0</v>
       </c>
       <c r="M53">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N53">
         <v>0.002</v>
@@ -14774,7 +14774,7 @@
         <v>5000.0</v>
       </c>
       <c r="M54">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N54">
         <v>0.002</v>
@@ -14830,7 +14830,7 @@
         <v>5000.0</v>
       </c>
       <c r="M55">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N55">
         <v>0.002</v>
@@ -14886,7 +14886,7 @@
         <v>5000.0</v>
       </c>
       <c r="M56">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N56">
         <v>0.002</v>
@@ -14942,7 +14942,7 @@
         <v>5000.0</v>
       </c>
       <c r="M57">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N57">
         <v>0.002</v>
@@ -14998,7 +14998,7 @@
         <v>5000.0</v>
       </c>
       <c r="M58">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N58">
         <v>0.002</v>
@@ -15054,7 +15054,7 @@
         <v>5000.0</v>
       </c>
       <c r="M59">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N59">
         <v>0.002</v>
@@ -15110,7 +15110,7 @@
         <v>5000.0</v>
       </c>
       <c r="M60">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N60">
         <v>0.002</v>
@@ -15166,7 +15166,7 @@
         <v>5000.0</v>
       </c>
       <c r="M61">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N61">
         <v>0.002</v>
@@ -15222,7 +15222,7 @@
         <v>5000.0</v>
       </c>
       <c r="M62">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N62">
         <v>0.002</v>
@@ -15278,7 +15278,7 @@
         <v>5000.0</v>
       </c>
       <c r="M63">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N63">
         <v>0.002</v>
@@ -15334,7 +15334,7 @@
         <v>5000.0</v>
       </c>
       <c r="M64">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N64">
         <v>0.002</v>
@@ -15390,7 +15390,7 @@
         <v>5000.0</v>
       </c>
       <c r="M65">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N65">
         <v>0.002</v>
@@ -15446,7 +15446,7 @@
         <v>5000.0</v>
       </c>
       <c r="M66">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N66">
         <v>0.002</v>
@@ -15502,7 +15502,7 @@
         <v>5000.0</v>
       </c>
       <c r="M67">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N67">
         <v>0.002</v>
@@ -15558,7 +15558,7 @@
         <v>5000.0</v>
       </c>
       <c r="M68">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N68">
         <v>0.002</v>
@@ -15614,7 +15614,7 @@
         <v>5000.0</v>
       </c>
       <c r="M69">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N69">
         <v>0.002</v>
@@ -15670,7 +15670,7 @@
         <v>5000.0</v>
       </c>
       <c r="M70">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N70">
         <v>0.002</v>
@@ -15726,7 +15726,7 @@
         <v>5000.0</v>
       </c>
       <c r="M71">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N71">
         <v>0.002</v>
@@ -15782,7 +15782,7 @@
         <v>5000.0</v>
       </c>
       <c r="M72">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N72">
         <v>0.002</v>
@@ -15838,7 +15838,7 @@
         <v>5000.0</v>
       </c>
       <c r="M73">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N73">
         <v>0.002</v>
@@ -15894,7 +15894,7 @@
         <v>5000.0</v>
       </c>
       <c r="M74">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N74">
         <v>0.002</v>
@@ -15950,7 +15950,7 @@
         <v>5000.0</v>
       </c>
       <c r="M75">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N75">
         <v>0.002</v>
@@ -16006,7 +16006,7 @@
         <v>5000.0</v>
       </c>
       <c r="M76">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N76">
         <v>0.002</v>
@@ -16062,7 +16062,7 @@
         <v>5000.0</v>
       </c>
       <c r="M77">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N77">
         <v>0.002</v>
@@ -16118,7 +16118,7 @@
         <v>5000.0</v>
       </c>
       <c r="M78">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N78">
         <v>0.002</v>
@@ -16174,7 +16174,7 @@
         <v>5000.0</v>
       </c>
       <c r="M79">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N79">
         <v>0.002</v>
@@ -16230,7 +16230,7 @@
         <v>5000.0</v>
       </c>
       <c r="M80">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N80">
         <v>0.002</v>
@@ -16286,7 +16286,7 @@
         <v>5000.0</v>
       </c>
       <c r="M81">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N81">
         <v>0.002</v>
@@ -16342,7 +16342,7 @@
         <v>5000.0</v>
       </c>
       <c r="M82">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N82">
         <v>0.002</v>
@@ -16398,7 +16398,7 @@
         <v>5000.0</v>
       </c>
       <c r="M83">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N83">
         <v>0.002</v>
@@ -16454,7 +16454,7 @@
         <v>5000.0</v>
       </c>
       <c r="M84">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N84">
         <v>0.002</v>
@@ -16510,7 +16510,7 @@
         <v>5000.0</v>
       </c>
       <c r="M85">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N85">
         <v>0.002</v>
@@ -16566,7 +16566,7 @@
         <v>5000.0</v>
       </c>
       <c r="M86">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N86">
         <v>0.002</v>
@@ -16622,7 +16622,7 @@
         <v>5000.0</v>
       </c>
       <c r="M87">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N87">
         <v>0.002</v>
@@ -16678,7 +16678,7 @@
         <v>5000.0</v>
       </c>
       <c r="M88">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N88">
         <v>0.002</v>
@@ -16734,7 +16734,7 @@
         <v>5000.0</v>
       </c>
       <c r="M89">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N89">
         <v>0.002</v>
@@ -16790,7 +16790,7 @@
         <v>5000.0</v>
       </c>
       <c r="M90">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N90">
         <v>0.002</v>
@@ -16846,7 +16846,7 @@
         <v>5000.0</v>
       </c>
       <c r="M91">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N91">
         <v>0.002</v>
@@ -16902,7 +16902,7 @@
         <v>5000.0</v>
       </c>
       <c r="M92">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N92">
         <v>0.002</v>
@@ -16958,7 +16958,7 @@
         <v>5000.0</v>
       </c>
       <c r="M93">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N93">
         <v>0.002</v>
@@ -17014,7 +17014,7 @@
         <v>5000.0</v>
       </c>
       <c r="M94">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N94">
         <v>0.002</v>
@@ -17070,7 +17070,7 @@
         <v>5000.0</v>
       </c>
       <c r="M95">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N95">
         <v>0.002</v>
@@ -17126,7 +17126,7 @@
         <v>5000.0</v>
       </c>
       <c r="M96">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N96">
         <v>0.002</v>
@@ -17182,7 +17182,7 @@
         <v>5000.0</v>
       </c>
       <c r="M97">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N97">
         <v>0.002</v>
@@ -17238,7 +17238,7 @@
         <v>5000.0</v>
       </c>
       <c r="M98">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N98">
         <v>0.002</v>
@@ -17294,7 +17294,7 @@
         <v>5000.0</v>
       </c>
       <c r="M99">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N99">
         <v>0.002</v>
@@ -17350,7 +17350,7 @@
         <v>5000.0</v>
       </c>
       <c r="M100">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N100">
         <v>0.002</v>
@@ -17406,7 +17406,7 @@
         <v>5000.0</v>
       </c>
       <c r="M101">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N101">
         <v>0.002</v>
@@ -17462,7 +17462,7 @@
         <v>5000.0</v>
       </c>
       <c r="M102">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N102">
         <v>0.002</v>
@@ -17518,7 +17518,7 @@
         <v>5000.0</v>
       </c>
       <c r="M103">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N103">
         <v>0.002</v>
@@ -17574,7 +17574,7 @@
         <v>5000.0</v>
       </c>
       <c r="M104">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N104">
         <v>0.002</v>
@@ -17630,7 +17630,7 @@
         <v>5000.0</v>
       </c>
       <c r="M105">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N105">
         <v>0.002</v>
@@ -17686,7 +17686,7 @@
         <v>5000.0</v>
       </c>
       <c r="M106">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N106">
         <v>0.002</v>
@@ -17742,7 +17742,7 @@
         <v>5000.0</v>
       </c>
       <c r="M107">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N107">
         <v>0.002</v>
@@ -17798,7 +17798,7 @@
         <v>5000.0</v>
       </c>
       <c r="M108">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N108">
         <v>0.002</v>
@@ -17854,7 +17854,7 @@
         <v>5000.0</v>
       </c>
       <c r="M109">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N109">
         <v>0.002</v>
@@ -17910,7 +17910,7 @@
         <v>5000.0</v>
       </c>
       <c r="M110">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N110">
         <v>0.002</v>
@@ -17966,7 +17966,7 @@
         <v>5000.0</v>
       </c>
       <c r="M111">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N111">
         <v>0.002</v>
@@ -18022,7 +18022,7 @@
         <v>5000.0</v>
       </c>
       <c r="M112">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N112">
         <v>0.002</v>
@@ -18078,7 +18078,7 @@
         <v>5000.0</v>
       </c>
       <c r="M113">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N113">
         <v>0.002</v>
@@ -18134,7 +18134,7 @@
         <v>5000.0</v>
       </c>
       <c r="M114">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N114">
         <v>0.002</v>
@@ -18190,7 +18190,7 @@
         <v>5000.0</v>
       </c>
       <c r="M115">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N115">
         <v>0.002</v>
@@ -18246,7 +18246,7 @@
         <v>5000.0</v>
       </c>
       <c r="M116">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N116">
         <v>0.002</v>
@@ -18302,7 +18302,7 @@
         <v>5000.0</v>
       </c>
       <c r="M117">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N117">
         <v>0.002</v>
@@ -18358,7 +18358,7 @@
         <v>5000.0</v>
       </c>
       <c r="M118">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N118">
         <v>0.002</v>
@@ -18414,7 +18414,7 @@
         <v>5000.0</v>
       </c>
       <c r="M119">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N119">
         <v>0.002</v>
@@ -18470,7 +18470,7 @@
         <v>5000.0</v>
       </c>
       <c r="M120">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N120">
         <v>0.002</v>
@@ -18526,7 +18526,7 @@
         <v>5000.0</v>
       </c>
       <c r="M121">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N121">
         <v>0.002</v>
@@ -18582,7 +18582,7 @@
         <v>5000.0</v>
       </c>
       <c r="M122">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N122">
         <v>0.002</v>
@@ -18638,7 +18638,7 @@
         <v>5000.0</v>
       </c>
       <c r="M123">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N123">
         <v>0.002</v>
@@ -18694,7 +18694,7 @@
         <v>5000.0</v>
       </c>
       <c r="M124">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N124">
         <v>0.002</v>
@@ -18750,7 +18750,7 @@
         <v>5000.0</v>
       </c>
       <c r="M125">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N125">
         <v>0.002</v>
@@ -18806,7 +18806,7 @@
         <v>5000.0</v>
       </c>
       <c r="M126">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N126">
         <v>0.002</v>
@@ -18862,7 +18862,7 @@
         <v>5000.0</v>
       </c>
       <c r="M127">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N127">
         <v>0.002</v>
@@ -18918,7 +18918,7 @@
         <v>5000.0</v>
       </c>
       <c r="M128">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N128">
         <v>0.002</v>
@@ -18974,7 +18974,7 @@
         <v>5000.0</v>
       </c>
       <c r="M129">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N129">
         <v>0.002</v>
@@ -19030,7 +19030,7 @@
         <v>5000.0</v>
       </c>
       <c r="M130">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N130">
         <v>0.002</v>
@@ -19086,7 +19086,7 @@
         <v>5000.0</v>
       </c>
       <c r="M131">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N131">
         <v>0.002</v>
@@ -19142,7 +19142,7 @@
         <v>5000.0</v>
       </c>
       <c r="M132">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N132">
         <v>0.002</v>
@@ -19198,7 +19198,7 @@
         <v>5000.0</v>
       </c>
       <c r="M133">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N133">
         <v>0.002</v>
@@ -19254,7 +19254,7 @@
         <v>5000.0</v>
       </c>
       <c r="M134">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N134">
         <v>0.002</v>
@@ -19310,7 +19310,7 @@
         <v>5000.0</v>
       </c>
       <c r="M135">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N135">
         <v>0.002</v>
@@ -19366,7 +19366,7 @@
         <v>5000.0</v>
       </c>
       <c r="M136">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N136">
         <v>0.002</v>
@@ -19422,7 +19422,7 @@
         <v>5000.0</v>
       </c>
       <c r="M137">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N137">
         <v>0.002</v>
@@ -19478,7 +19478,7 @@
         <v>5000.0</v>
       </c>
       <c r="M138">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N138">
         <v>0.002</v>
@@ -19534,7 +19534,7 @@
         <v>5000.0</v>
       </c>
       <c r="M139">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N139">
         <v>0.002</v>
@@ -19590,7 +19590,7 @@
         <v>5000.0</v>
       </c>
       <c r="M140">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N140">
         <v>0.002</v>
@@ -19646,7 +19646,7 @@
         <v>5000.0</v>
       </c>
       <c r="M141">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N141">
         <v>0.002</v>
@@ -19702,7 +19702,7 @@
         <v>5000.0</v>
       </c>
       <c r="M142">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N142">
         <v>0.002</v>
@@ -19758,7 +19758,7 @@
         <v>5000.0</v>
       </c>
       <c r="M143">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N143">
         <v>0.002</v>
@@ -19814,7 +19814,7 @@
         <v>5000.0</v>
       </c>
       <c r="M144">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N144">
         <v>0.002</v>
@@ -19870,7 +19870,7 @@
         <v>5000.0</v>
       </c>
       <c r="M145">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N145">
         <v>0.002</v>
@@ -19926,7 +19926,7 @@
         <v>5000.0</v>
       </c>
       <c r="M146">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N146">
         <v>0.002</v>
@@ -19982,7 +19982,7 @@
         <v>5000.0</v>
       </c>
       <c r="M147">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N147">
         <v>0.002</v>
@@ -20038,7 +20038,7 @@
         <v>5000.0</v>
       </c>
       <c r="M148">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N148">
         <v>0.002</v>
@@ -20094,7 +20094,7 @@
         <v>5000.0</v>
       </c>
       <c r="M149">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N149">
         <v>0.002</v>
@@ -20150,7 +20150,7 @@
         <v>5000.0</v>
       </c>
       <c r="M150">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N150">
         <v>0.002</v>
@@ -20206,7 +20206,7 @@
         <v>5000.0</v>
       </c>
       <c r="M151">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N151">
         <v>0.002</v>
@@ -20262,7 +20262,7 @@
         <v>5000.0</v>
       </c>
       <c r="M152">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N152">
         <v>0.002</v>
@@ -20318,7 +20318,7 @@
         <v>5000.0</v>
       </c>
       <c r="M153">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N153">
         <v>0.002</v>
@@ -20374,7 +20374,7 @@
         <v>5000.0</v>
       </c>
       <c r="M154">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N154">
         <v>0.002</v>
@@ -20430,7 +20430,7 @@
         <v>5000.0</v>
       </c>
       <c r="M155">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N155">
         <v>0.002</v>
@@ -20486,7 +20486,7 @@
         <v>5000.0</v>
       </c>
       <c r="M156">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N156">
         <v>0.002</v>
@@ -20542,7 +20542,7 @@
         <v>5000.0</v>
       </c>
       <c r="M157">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N157">
         <v>0.002</v>
@@ -20598,7 +20598,7 @@
         <v>5000.0</v>
       </c>
       <c r="M158">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N158">
         <v>0.002</v>
@@ -20654,7 +20654,7 @@
         <v>5000.0</v>
       </c>
       <c r="M159">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N159">
         <v>0.002</v>
@@ -20710,7 +20710,7 @@
         <v>5000.0</v>
       </c>
       <c r="M160">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N160">
         <v>0.002</v>
@@ -20766,7 +20766,7 @@
         <v>5000.0</v>
       </c>
       <c r="M161">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N161">
         <v>0.002</v>
@@ -20822,7 +20822,7 @@
         <v>5000.0</v>
       </c>
       <c r="M162">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N162">
         <v>0.002</v>
@@ -20878,7 +20878,7 @@
         <v>5000.0</v>
       </c>
       <c r="M163">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N163">
         <v>0.002</v>
@@ -20934,7 +20934,7 @@
         <v>5000.0</v>
       </c>
       <c r="M164">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N164">
         <v>0.002</v>
@@ -20990,7 +20990,7 @@
         <v>5000.0</v>
       </c>
       <c r="M165">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N165">
         <v>0.002</v>
@@ -21046,7 +21046,7 @@
         <v>5000.0</v>
       </c>
       <c r="M166">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N166">
         <v>0.002</v>
@@ -21102,7 +21102,7 @@
         <v>5000.0</v>
       </c>
       <c r="M167">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N167">
         <v>0.002</v>
@@ -21158,7 +21158,7 @@
         <v>5000.0</v>
       </c>
       <c r="M168">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N168">
         <v>0.002</v>
@@ -21214,7 +21214,7 @@
         <v>5000.0</v>
       </c>
       <c r="M169">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N169">
         <v>0.002</v>
@@ -21270,7 +21270,7 @@
         <v>5000.0</v>
       </c>
       <c r="M170">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N170">
         <v>0.002</v>
@@ -21326,7 +21326,7 @@
         <v>5000.0</v>
       </c>
       <c r="M171">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N171">
         <v>0.002</v>
@@ -21382,7 +21382,7 @@
         <v>5000.0</v>
       </c>
       <c r="M172">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N172">
         <v>0.002</v>
@@ -21438,7 +21438,7 @@
         <v>5000.0</v>
       </c>
       <c r="M173">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N173">
         <v>0.002</v>
@@ -21494,7 +21494,7 @@
         <v>5000.0</v>
       </c>
       <c r="M174">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N174">
         <v>0.002</v>
@@ -21550,7 +21550,7 @@
         <v>5000.0</v>
       </c>
       <c r="M175">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N175">
         <v>0.002</v>
@@ -21606,7 +21606,7 @@
         <v>5000.0</v>
       </c>
       <c r="M176">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N176">
         <v>0.002</v>
@@ -21662,7 +21662,7 @@
         <v>5000.0</v>
       </c>
       <c r="M177">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N177">
         <v>0.002</v>
@@ -21718,7 +21718,7 @@
         <v>5000.0</v>
       </c>
       <c r="M178">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N178">
         <v>0.002</v>
@@ -21774,7 +21774,7 @@
         <v>5000.0</v>
       </c>
       <c r="M179">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N179">
         <v>0.002</v>
@@ -21830,7 +21830,7 @@
         <v>5000.0</v>
       </c>
       <c r="M180">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N180">
         <v>0.002</v>
@@ -21886,7 +21886,7 @@
         <v>5000.0</v>
       </c>
       <c r="M181">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N181">
         <v>0.002</v>
@@ -21942,7 +21942,7 @@
         <v>5000.0</v>
       </c>
       <c r="M182">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N182">
         <v>0.002</v>
@@ -21998,7 +21998,7 @@
         <v>5000.0</v>
       </c>
       <c r="M183">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N183">
         <v>0.002</v>
@@ -22054,7 +22054,7 @@
         <v>5000.0</v>
       </c>
       <c r="M184">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N184">
         <v>0.002</v>
@@ -22110,7 +22110,7 @@
         <v>5000.0</v>
       </c>
       <c r="M185">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N185">
         <v>0.002</v>
@@ -22166,7 +22166,7 @@
         <v>5000.0</v>
       </c>
       <c r="M186">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N186">
         <v>0.002</v>
@@ -22222,7 +22222,7 @@
         <v>5000.0</v>
       </c>
       <c r="M187">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N187">
         <v>0.002</v>
@@ -22278,7 +22278,7 @@
         <v>5000.0</v>
       </c>
       <c r="M188">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N188">
         <v>0.002</v>
@@ -22334,7 +22334,7 @@
         <v>5000.0</v>
       </c>
       <c r="M189">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N189">
         <v>0.002</v>
@@ -22390,7 +22390,7 @@
         <v>5000.0</v>
       </c>
       <c r="M190">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N190">
         <v>0.002</v>
@@ -22446,7 +22446,7 @@
         <v>5000.0</v>
       </c>
       <c r="M191">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N191">
         <v>0.002</v>
@@ -22502,7 +22502,7 @@
         <v>5000.0</v>
       </c>
       <c r="M192">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N192">
         <v>0.002</v>
@@ -22558,7 +22558,7 @@
         <v>5000.0</v>
       </c>
       <c r="M193">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N193">
         <v>0.002</v>
@@ -22614,7 +22614,7 @@
         <v>5000.0</v>
       </c>
       <c r="M194">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N194">
         <v>0.002</v>
@@ -22670,7 +22670,7 @@
         <v>5000.0</v>
       </c>
       <c r="M195">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N195">
         <v>0.002</v>
@@ -22726,7 +22726,7 @@
         <v>5000.0</v>
       </c>
       <c r="M196">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N196">
         <v>0.002</v>
@@ -22782,7 +22782,7 @@
         <v>5000.0</v>
       </c>
       <c r="M197">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N197">
         <v>0.002</v>
@@ -22838,7 +22838,7 @@
         <v>5000.0</v>
       </c>
       <c r="M198">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N198">
         <v>0.002</v>
@@ -22894,7 +22894,7 @@
         <v>5000.0</v>
       </c>
       <c r="M199">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N199">
         <v>0.002</v>
@@ -22950,7 +22950,7 @@
         <v>5000.0</v>
       </c>
       <c r="M200">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N200">
         <v>0.002</v>
@@ -23006,7 +23006,7 @@
         <v>5000.0</v>
       </c>
       <c r="M201">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N201">
         <v>0.002</v>
@@ -23062,7 +23062,7 @@
         <v>5000.0</v>
       </c>
       <c r="M202">
-        <v>4.347942903311819e-9</v>
+        <v>4.347942903311818e-9</v>
       </c>
       <c r="N202">
         <v>0.002</v>
@@ -45837,7 +45837,7 @@
         <v>5000.0</v>
       </c>
       <c r="M2">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N2">
         <v>0.002</v>
@@ -45893,7 +45893,7 @@
         <v>5000.0</v>
       </c>
       <c r="M3">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N3">
         <v>0.002</v>
@@ -45949,7 +45949,7 @@
         <v>5000.0</v>
       </c>
       <c r="M4">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N4">
         <v>0.002</v>
@@ -46005,7 +46005,7 @@
         <v>5000.0</v>
       </c>
       <c r="M5">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N5">
         <v>0.002</v>
@@ -46061,7 +46061,7 @@
         <v>5000.0</v>
       </c>
       <c r="M6">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N6">
         <v>0.002</v>
@@ -46117,7 +46117,7 @@
         <v>5000.0</v>
       </c>
       <c r="M7">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N7">
         <v>0.002</v>
@@ -46173,7 +46173,7 @@
         <v>5000.0</v>
       </c>
       <c r="M8">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N8">
         <v>0.002</v>
@@ -46229,7 +46229,7 @@
         <v>5000.0</v>
       </c>
       <c r="M9">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N9">
         <v>0.002</v>
@@ -46285,7 +46285,7 @@
         <v>5000.0</v>
       </c>
       <c r="M10">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N10">
         <v>0.002</v>
@@ -46341,7 +46341,7 @@
         <v>5000.0</v>
       </c>
       <c r="M11">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N11">
         <v>0.002</v>
@@ -46397,7 +46397,7 @@
         <v>5000.0</v>
       </c>
       <c r="M12">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N12">
         <v>0.002</v>
@@ -46453,7 +46453,7 @@
         <v>5000.0</v>
       </c>
       <c r="M13">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N13">
         <v>0.002</v>
@@ -46509,7 +46509,7 @@
         <v>5000.0</v>
       </c>
       <c r="M14">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N14">
         <v>0.002</v>
@@ -46565,7 +46565,7 @@
         <v>5000.0</v>
       </c>
       <c r="M15">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N15">
         <v>0.002</v>
@@ -46621,7 +46621,7 @@
         <v>5000.0</v>
       </c>
       <c r="M16">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N16">
         <v>0.002</v>
@@ -46677,7 +46677,7 @@
         <v>5000.0</v>
       </c>
       <c r="M17">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N17">
         <v>0.002</v>
@@ -46733,7 +46733,7 @@
         <v>5000.0</v>
       </c>
       <c r="M18">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N18">
         <v>0.002</v>
@@ -46789,7 +46789,7 @@
         <v>5000.0</v>
       </c>
       <c r="M19">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N19">
         <v>0.002</v>
@@ -46845,7 +46845,7 @@
         <v>5000.0</v>
       </c>
       <c r="M20">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N20">
         <v>0.002</v>
@@ -46901,7 +46901,7 @@
         <v>5000.0</v>
       </c>
       <c r="M21">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N21">
         <v>0.002</v>
@@ -46957,7 +46957,7 @@
         <v>5000.0</v>
       </c>
       <c r="M22">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N22">
         <v>0.002</v>
@@ -47013,7 +47013,7 @@
         <v>5000.0</v>
       </c>
       <c r="M23">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N23">
         <v>0.002</v>
@@ -47069,7 +47069,7 @@
         <v>5000.0</v>
       </c>
       <c r="M24">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N24">
         <v>0.002</v>
@@ -47125,7 +47125,7 @@
         <v>5000.0</v>
       </c>
       <c r="M25">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N25">
         <v>0.002</v>
@@ -47181,7 +47181,7 @@
         <v>5000.0</v>
       </c>
       <c r="M26">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N26">
         <v>0.002</v>
@@ -47237,7 +47237,7 @@
         <v>5000.0</v>
       </c>
       <c r="M27">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N27">
         <v>0.002</v>
@@ -47293,7 +47293,7 @@
         <v>5000.0</v>
       </c>
       <c r="M28">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N28">
         <v>0.002</v>
@@ -47349,7 +47349,7 @@
         <v>5000.0</v>
       </c>
       <c r="M29">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N29">
         <v>0.002</v>
@@ -47405,7 +47405,7 @@
         <v>5000.0</v>
       </c>
       <c r="M30">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N30">
         <v>0.002</v>
@@ -47461,7 +47461,7 @@
         <v>5000.0</v>
       </c>
       <c r="M31">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N31">
         <v>0.002</v>
@@ -47517,7 +47517,7 @@
         <v>5000.0</v>
       </c>
       <c r="M32">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N32">
         <v>0.002</v>
@@ -47573,7 +47573,7 @@
         <v>5000.0</v>
       </c>
       <c r="M33">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N33">
         <v>0.002</v>
@@ -47629,7 +47629,7 @@
         <v>5000.0</v>
       </c>
       <c r="M34">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N34">
         <v>0.002</v>
@@ -47685,7 +47685,7 @@
         <v>5000.0</v>
       </c>
       <c r="M35">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N35">
         <v>0.002</v>
@@ -47741,7 +47741,7 @@
         <v>5000.0</v>
       </c>
       <c r="M36">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N36">
         <v>0.002</v>
@@ -47797,7 +47797,7 @@
         <v>5000.0</v>
       </c>
       <c r="M37">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N37">
         <v>0.002</v>
@@ -47853,7 +47853,7 @@
         <v>5000.0</v>
       </c>
       <c r="M38">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N38">
         <v>0.002</v>
@@ -47909,7 +47909,7 @@
         <v>5000.0</v>
       </c>
       <c r="M39">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N39">
         <v>0.002</v>
@@ -47965,7 +47965,7 @@
         <v>5000.0</v>
       </c>
       <c r="M40">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N40">
         <v>0.002</v>
@@ -48021,7 +48021,7 @@
         <v>5000.0</v>
       </c>
       <c r="M41">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N41">
         <v>0.002</v>
@@ -48077,7 +48077,7 @@
         <v>5000.0</v>
       </c>
       <c r="M42">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N42">
         <v>0.002</v>
@@ -48133,7 +48133,7 @@
         <v>5000.0</v>
       </c>
       <c r="M43">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N43">
         <v>0.002</v>
@@ -48189,7 +48189,7 @@
         <v>5000.0</v>
       </c>
       <c r="M44">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N44">
         <v>0.002</v>
@@ -48245,7 +48245,7 @@
         <v>5000.0</v>
       </c>
       <c r="M45">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N45">
         <v>0.002</v>
@@ -48301,7 +48301,7 @@
         <v>5000.0</v>
       </c>
       <c r="M46">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N46">
         <v>0.002</v>
@@ -48357,7 +48357,7 @@
         <v>5000.0</v>
       </c>
       <c r="M47">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N47">
         <v>0.002</v>
@@ -48413,7 +48413,7 @@
         <v>5000.0</v>
       </c>
       <c r="M48">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N48">
         <v>0.002</v>
@@ -48469,7 +48469,7 @@
         <v>5000.0</v>
       </c>
       <c r="M49">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N49">
         <v>0.002</v>
@@ -48525,7 +48525,7 @@
         <v>5000.0</v>
       </c>
       <c r="M50">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N50">
         <v>0.002</v>
@@ -48581,7 +48581,7 @@
         <v>5000.0</v>
       </c>
       <c r="M51">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N51">
         <v>0.002</v>
@@ -48637,7 +48637,7 @@
         <v>5000.0</v>
       </c>
       <c r="M52">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N52">
         <v>0.002</v>
@@ -48693,7 +48693,7 @@
         <v>5000.0</v>
       </c>
       <c r="M53">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N53">
         <v>0.002</v>
@@ -48749,7 +48749,7 @@
         <v>5000.0</v>
       </c>
       <c r="M54">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N54">
         <v>0.002</v>
@@ -48805,7 +48805,7 @@
         <v>5000.0</v>
       </c>
       <c r="M55">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N55">
         <v>0.002</v>
@@ -48861,7 +48861,7 @@
         <v>5000.0</v>
       </c>
       <c r="M56">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N56">
         <v>0.002</v>
@@ -48917,7 +48917,7 @@
         <v>5000.0</v>
       </c>
       <c r="M57">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N57">
         <v>0.002</v>
@@ -48973,7 +48973,7 @@
         <v>5000.0</v>
       </c>
       <c r="M58">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N58">
         <v>0.002</v>
@@ -49029,7 +49029,7 @@
         <v>5000.0</v>
       </c>
       <c r="M59">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N59">
         <v>0.002</v>
@@ -49085,7 +49085,7 @@
         <v>5000.0</v>
       </c>
       <c r="M60">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N60">
         <v>0.002</v>
@@ -49141,7 +49141,7 @@
         <v>5000.0</v>
       </c>
       <c r="M61">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N61">
         <v>0.002</v>
@@ -49197,7 +49197,7 @@
         <v>5000.0</v>
       </c>
       <c r="M62">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N62">
         <v>0.002</v>
@@ -49253,7 +49253,7 @@
         <v>5000.0</v>
       </c>
       <c r="M63">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N63">
         <v>0.002</v>
@@ -49309,7 +49309,7 @@
         <v>5000.0</v>
       </c>
       <c r="M64">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N64">
         <v>0.002</v>
@@ -49365,7 +49365,7 @@
         <v>5000.0</v>
       </c>
       <c r="M65">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N65">
         <v>0.002</v>
@@ -49421,7 +49421,7 @@
         <v>5000.0</v>
       </c>
       <c r="M66">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N66">
         <v>0.002</v>
@@ -49477,7 +49477,7 @@
         <v>5000.0</v>
       </c>
       <c r="M67">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N67">
         <v>0.002</v>
@@ -49533,7 +49533,7 @@
         <v>5000.0</v>
       </c>
       <c r="M68">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N68">
         <v>0.002</v>
@@ -49589,7 +49589,7 @@
         <v>5000.0</v>
       </c>
       <c r="M69">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N69">
         <v>0.002</v>
@@ -49645,7 +49645,7 @@
         <v>5000.0</v>
       </c>
       <c r="M70">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N70">
         <v>0.002</v>
@@ -49701,7 +49701,7 @@
         <v>5000.0</v>
       </c>
       <c r="M71">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N71">
         <v>0.002</v>
@@ -49757,7 +49757,7 @@
         <v>5000.0</v>
       </c>
       <c r="M72">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N72">
         <v>0.002</v>
@@ -49813,7 +49813,7 @@
         <v>5000.0</v>
       </c>
       <c r="M73">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N73">
         <v>0.002</v>
@@ -49869,7 +49869,7 @@
         <v>5000.0</v>
       </c>
       <c r="M74">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N74">
         <v>0.002</v>
@@ -49925,7 +49925,7 @@
         <v>5000.0</v>
       </c>
       <c r="M75">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N75">
         <v>0.002</v>
@@ -49981,7 +49981,7 @@
         <v>5000.0</v>
       </c>
       <c r="M76">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N76">
         <v>0.002</v>
@@ -50037,7 +50037,7 @@
         <v>5000.0</v>
       </c>
       <c r="M77">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N77">
         <v>0.002</v>
@@ -50093,7 +50093,7 @@
         <v>5000.0</v>
       </c>
       <c r="M78">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N78">
         <v>0.002</v>
@@ -50149,7 +50149,7 @@
         <v>5000.0</v>
       </c>
       <c r="M79">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N79">
         <v>0.002</v>
@@ -50205,7 +50205,7 @@
         <v>5000.0</v>
       </c>
       <c r="M80">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N80">
         <v>0.002</v>
@@ -50261,7 +50261,7 @@
         <v>5000.0</v>
       </c>
       <c r="M81">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N81">
         <v>0.002</v>
@@ -50317,7 +50317,7 @@
         <v>5000.0</v>
       </c>
       <c r="M82">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N82">
         <v>0.002</v>
@@ -50373,7 +50373,7 @@
         <v>5000.0</v>
       </c>
       <c r="M83">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N83">
         <v>0.002</v>
@@ -50429,7 +50429,7 @@
         <v>5000.0</v>
       </c>
       <c r="M84">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N84">
         <v>0.002</v>
@@ -50485,7 +50485,7 @@
         <v>5000.0</v>
       </c>
       <c r="M85">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N85">
         <v>0.002</v>
@@ -50541,7 +50541,7 @@
         <v>5000.0</v>
       </c>
       <c r="M86">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N86">
         <v>0.002</v>
@@ -50597,7 +50597,7 @@
         <v>5000.0</v>
       </c>
       <c r="M87">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N87">
         <v>0.002</v>
@@ -50653,7 +50653,7 @@
         <v>5000.0</v>
       </c>
       <c r="M88">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N88">
         <v>0.002</v>
@@ -50709,7 +50709,7 @@
         <v>5000.0</v>
       </c>
       <c r="M89">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N89">
         <v>0.002</v>
@@ -50765,7 +50765,7 @@
         <v>5000.0</v>
       </c>
       <c r="M90">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N90">
         <v>0.002</v>
@@ -50821,7 +50821,7 @@
         <v>5000.0</v>
       </c>
       <c r="M91">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N91">
         <v>0.002</v>
@@ -50877,7 +50877,7 @@
         <v>5000.0</v>
       </c>
       <c r="M92">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N92">
         <v>0.002</v>
@@ -50933,7 +50933,7 @@
         <v>5000.0</v>
       </c>
       <c r="M93">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N93">
         <v>0.002</v>
@@ -50989,7 +50989,7 @@
         <v>5000.0</v>
       </c>
       <c r="M94">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N94">
         <v>0.002</v>
@@ -51045,7 +51045,7 @@
         <v>5000.0</v>
       </c>
       <c r="M95">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N95">
         <v>0.002</v>
@@ -51101,7 +51101,7 @@
         <v>5000.0</v>
       </c>
       <c r="M96">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N96">
         <v>0.002</v>
@@ -51157,7 +51157,7 @@
         <v>5000.0</v>
       </c>
       <c r="M97">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N97">
         <v>0.002</v>
@@ -51213,7 +51213,7 @@
         <v>5000.0</v>
       </c>
       <c r="M98">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N98">
         <v>0.002</v>
@@ -51269,7 +51269,7 @@
         <v>5000.0</v>
       </c>
       <c r="M99">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N99">
         <v>0.002</v>
@@ -51325,7 +51325,7 @@
         <v>5000.0</v>
       </c>
       <c r="M100">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N100">
         <v>0.002</v>
@@ -51381,7 +51381,7 @@
         <v>5000.0</v>
       </c>
       <c r="M101">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N101">
         <v>0.002</v>
@@ -51437,7 +51437,7 @@
         <v>5000.0</v>
       </c>
       <c r="M102">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N102">
         <v>0.002</v>
@@ -51493,7 +51493,7 @@
         <v>5000.0</v>
       </c>
       <c r="M103">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N103">
         <v>0.002</v>
@@ -51549,7 +51549,7 @@
         <v>5000.0</v>
       </c>
       <c r="M104">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N104">
         <v>0.002</v>
@@ -51605,7 +51605,7 @@
         <v>5000.0</v>
       </c>
       <c r="M105">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N105">
         <v>0.002</v>
@@ -51661,7 +51661,7 @@
         <v>5000.0</v>
       </c>
       <c r="M106">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N106">
         <v>0.002</v>
@@ -51717,7 +51717,7 @@
         <v>5000.0</v>
       </c>
       <c r="M107">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N107">
         <v>0.002</v>
@@ -51773,7 +51773,7 @@
         <v>5000.0</v>
       </c>
       <c r="M108">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N108">
         <v>0.002</v>
@@ -51829,7 +51829,7 @@
         <v>5000.0</v>
       </c>
       <c r="M109">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N109">
         <v>0.002</v>
@@ -51885,7 +51885,7 @@
         <v>5000.0</v>
       </c>
       <c r="M110">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N110">
         <v>0.002</v>
@@ -51941,7 +51941,7 @@
         <v>5000.0</v>
       </c>
       <c r="M111">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N111">
         <v>0.002</v>
@@ -51997,7 +51997,7 @@
         <v>5000.0</v>
       </c>
       <c r="M112">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N112">
         <v>0.002</v>
@@ -52053,7 +52053,7 @@
         <v>5000.0</v>
       </c>
       <c r="M113">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N113">
         <v>0.002</v>
@@ -52109,7 +52109,7 @@
         <v>5000.0</v>
       </c>
       <c r="M114">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N114">
         <v>0.002</v>
@@ -52165,7 +52165,7 @@
         <v>5000.0</v>
       </c>
       <c r="M115">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N115">
         <v>0.002</v>
@@ -52221,7 +52221,7 @@
         <v>5000.0</v>
       </c>
       <c r="M116">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N116">
         <v>0.002</v>
@@ -52277,7 +52277,7 @@
         <v>5000.0</v>
       </c>
       <c r="M117">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N117">
         <v>0.002</v>
@@ -52333,7 +52333,7 @@
         <v>5000.0</v>
       </c>
       <c r="M118">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N118">
         <v>0.002</v>
@@ -52389,7 +52389,7 @@
         <v>5000.0</v>
       </c>
       <c r="M119">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N119">
         <v>0.002</v>
@@ -52445,7 +52445,7 @@
         <v>5000.0</v>
       </c>
       <c r="M120">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N120">
         <v>0.002</v>
@@ -52501,7 +52501,7 @@
         <v>5000.0</v>
       </c>
       <c r="M121">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N121">
         <v>0.002</v>
@@ -52557,7 +52557,7 @@
         <v>5000.0</v>
       </c>
       <c r="M122">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N122">
         <v>0.002</v>
@@ -52613,7 +52613,7 @@
         <v>5000.0</v>
       </c>
       <c r="M123">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N123">
         <v>0.002</v>
@@ -52669,7 +52669,7 @@
         <v>5000.0</v>
       </c>
       <c r="M124">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N124">
         <v>0.002</v>
@@ -52725,7 +52725,7 @@
         <v>5000.0</v>
       </c>
       <c r="M125">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N125">
         <v>0.002</v>
@@ -52781,7 +52781,7 @@
         <v>5000.0</v>
       </c>
       <c r="M126">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N126">
         <v>0.002</v>
@@ -52837,7 +52837,7 @@
         <v>5000.0</v>
       </c>
       <c r="M127">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N127">
         <v>0.002</v>
@@ -52893,7 +52893,7 @@
         <v>5000.0</v>
       </c>
       <c r="M128">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N128">
         <v>0.002</v>
@@ -52949,7 +52949,7 @@
         <v>5000.0</v>
       </c>
       <c r="M129">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N129">
         <v>0.002</v>
@@ -53005,7 +53005,7 @@
         <v>5000.0</v>
       </c>
       <c r="M130">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N130">
         <v>0.002</v>
@@ -53061,7 +53061,7 @@
         <v>5000.0</v>
       </c>
       <c r="M131">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N131">
         <v>0.002</v>
@@ -53117,7 +53117,7 @@
         <v>5000.0</v>
       </c>
       <c r="M132">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N132">
         <v>0.002</v>
@@ -53173,7 +53173,7 @@
         <v>5000.0</v>
       </c>
       <c r="M133">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N133">
         <v>0.002</v>
@@ -53229,7 +53229,7 @@
         <v>5000.0</v>
       </c>
       <c r="M134">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N134">
         <v>0.002</v>
@@ -53285,7 +53285,7 @@
         <v>5000.0</v>
       </c>
       <c r="M135">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N135">
         <v>0.002</v>
@@ -53341,7 +53341,7 @@
         <v>5000.0</v>
       </c>
       <c r="M136">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N136">
         <v>0.002</v>
@@ -53397,7 +53397,7 @@
         <v>5000.0</v>
       </c>
       <c r="M137">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N137">
         <v>0.002</v>
@@ -53453,7 +53453,7 @@
         <v>5000.0</v>
       </c>
       <c r="M138">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N138">
         <v>0.002</v>
@@ -53509,7 +53509,7 @@
         <v>5000.0</v>
       </c>
       <c r="M139">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N139">
         <v>0.002</v>
@@ -53565,7 +53565,7 @@
         <v>5000.0</v>
       </c>
       <c r="M140">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N140">
         <v>0.002</v>
@@ -53621,7 +53621,7 @@
         <v>5000.0</v>
       </c>
       <c r="M141">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N141">
         <v>0.002</v>
@@ -53677,7 +53677,7 @@
         <v>5000.0</v>
       </c>
       <c r="M142">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N142">
         <v>0.002</v>
@@ -53733,7 +53733,7 @@
         <v>5000.0</v>
       </c>
       <c r="M143">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N143">
         <v>0.002</v>
@@ -53789,7 +53789,7 @@
         <v>5000.0</v>
       </c>
       <c r="M144">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N144">
         <v>0.002</v>
@@ -53845,7 +53845,7 @@
         <v>5000.0</v>
       </c>
       <c r="M145">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N145">
         <v>0.002</v>
@@ -53901,7 +53901,7 @@
         <v>5000.0</v>
       </c>
       <c r="M146">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N146">
         <v>0.002</v>
@@ -53957,7 +53957,7 @@
         <v>5000.0</v>
       </c>
       <c r="M147">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N147">
         <v>0.002</v>
@@ -54013,7 +54013,7 @@
         <v>5000.0</v>
       </c>
       <c r="M148">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N148">
         <v>0.002</v>
@@ -54069,7 +54069,7 @@
         <v>5000.0</v>
       </c>
       <c r="M149">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N149">
         <v>0.002</v>
@@ -54125,7 +54125,7 @@
         <v>5000.0</v>
       </c>
       <c r="M150">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N150">
         <v>0.002</v>
@@ -54181,7 +54181,7 @@
         <v>5000.0</v>
       </c>
       <c r="M151">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N151">
         <v>0.002</v>
@@ -54237,7 +54237,7 @@
         <v>5000.0</v>
       </c>
       <c r="M152">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N152">
         <v>0.002</v>
@@ -54293,7 +54293,7 @@
         <v>5000.0</v>
       </c>
       <c r="M153">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N153">
         <v>0.002</v>
@@ -54349,7 +54349,7 @@
         <v>5000.0</v>
       </c>
       <c r="M154">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N154">
         <v>0.002</v>
@@ -54405,7 +54405,7 @@
         <v>5000.0</v>
       </c>
       <c r="M155">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N155">
         <v>0.002</v>
@@ -54461,7 +54461,7 @@
         <v>5000.0</v>
       </c>
       <c r="M156">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N156">
         <v>0.002</v>
@@ -54517,7 +54517,7 @@
         <v>5000.0</v>
       </c>
       <c r="M157">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N157">
         <v>0.002</v>
@@ -54573,7 +54573,7 @@
         <v>5000.0</v>
       </c>
       <c r="M158">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N158">
         <v>0.002</v>
@@ -54629,7 +54629,7 @@
         <v>5000.0</v>
       </c>
       <c r="M159">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N159">
         <v>0.002</v>
@@ -54685,7 +54685,7 @@
         <v>5000.0</v>
       </c>
       <c r="M160">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N160">
         <v>0.002</v>
@@ -54741,7 +54741,7 @@
         <v>5000.0</v>
       </c>
       <c r="M161">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N161">
         <v>0.002</v>
@@ -54797,7 +54797,7 @@
         <v>5000.0</v>
       </c>
       <c r="M162">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N162">
         <v>0.002</v>
@@ -54853,7 +54853,7 @@
         <v>5000.0</v>
       </c>
       <c r="M163">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N163">
         <v>0.002</v>
@@ -54909,7 +54909,7 @@
         <v>5000.0</v>
       </c>
       <c r="M164">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N164">
         <v>0.002</v>
@@ -54965,7 +54965,7 @@
         <v>5000.0</v>
       </c>
       <c r="M165">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N165">
         <v>0.002</v>
@@ -55021,7 +55021,7 @@
         <v>5000.0</v>
       </c>
       <c r="M166">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N166">
         <v>0.002</v>
@@ -55077,7 +55077,7 @@
         <v>5000.0</v>
       </c>
       <c r="M167">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N167">
         <v>0.002</v>
@@ -55133,7 +55133,7 @@
         <v>5000.0</v>
       </c>
       <c r="M168">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N168">
         <v>0.002</v>
@@ -55189,7 +55189,7 @@
         <v>5000.0</v>
       </c>
       <c r="M169">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N169">
         <v>0.002</v>
@@ -55245,7 +55245,7 @@
         <v>5000.0</v>
       </c>
       <c r="M170">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N170">
         <v>0.002</v>
@@ -55301,7 +55301,7 @@
         <v>5000.0</v>
       </c>
       <c r="M171">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N171">
         <v>0.002</v>
@@ -55357,7 +55357,7 @@
         <v>5000.0</v>
       </c>
       <c r="M172">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N172">
         <v>0.002</v>
@@ -55413,7 +55413,7 @@
         <v>5000.0</v>
       </c>
       <c r="M173">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N173">
         <v>0.002</v>
@@ -55469,7 +55469,7 @@
         <v>5000.0</v>
       </c>
       <c r="M174">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N174">
         <v>0.002</v>
@@ -55525,7 +55525,7 @@
         <v>5000.0</v>
       </c>
       <c r="M175">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N175">
         <v>0.002</v>
@@ -55581,7 +55581,7 @@
         <v>5000.0</v>
       </c>
       <c r="M176">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N176">
         <v>0.002</v>
@@ -55637,7 +55637,7 @@
         <v>5000.0</v>
       </c>
       <c r="M177">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N177">
         <v>0.002</v>
@@ -55693,7 +55693,7 @@
         <v>5000.0</v>
       </c>
       <c r="M178">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N178">
         <v>0.002</v>
@@ -55749,7 +55749,7 @@
         <v>5000.0</v>
       </c>
       <c r="M179">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N179">
         <v>0.002</v>
@@ -55805,7 +55805,7 @@
         <v>5000.0</v>
       </c>
       <c r="M180">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N180">
         <v>0.002</v>
@@ -55861,7 +55861,7 @@
         <v>5000.0</v>
       </c>
       <c r="M181">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N181">
         <v>0.002</v>
@@ -55917,7 +55917,7 @@
         <v>5000.0</v>
       </c>
       <c r="M182">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N182">
         <v>0.002</v>
@@ -55973,7 +55973,7 @@
         <v>5000.0</v>
       </c>
       <c r="M183">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N183">
         <v>0.002</v>
@@ -56029,7 +56029,7 @@
         <v>5000.0</v>
       </c>
       <c r="M184">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N184">
         <v>0.002</v>
@@ -56085,7 +56085,7 @@
         <v>5000.0</v>
       </c>
       <c r="M185">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N185">
         <v>0.002</v>
@@ -56141,7 +56141,7 @@
         <v>5000.0</v>
       </c>
       <c r="M186">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N186">
         <v>0.002</v>
@@ -56197,7 +56197,7 @@
         <v>5000.0</v>
       </c>
       <c r="M187">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N187">
         <v>0.002</v>
@@ -56253,7 +56253,7 @@
         <v>5000.0</v>
       </c>
       <c r="M188">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N188">
         <v>0.002</v>
@@ -56309,7 +56309,7 @@
         <v>5000.0</v>
       </c>
       <c r="M189">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N189">
         <v>0.002</v>
@@ -56365,7 +56365,7 @@
         <v>5000.0</v>
       </c>
       <c r="M190">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N190">
         <v>0.002</v>
@@ -56421,7 +56421,7 @@
         <v>5000.0</v>
       </c>
       <c r="M191">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N191">
         <v>0.002</v>
@@ -56477,7 +56477,7 @@
         <v>5000.0</v>
       </c>
       <c r="M192">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N192">
         <v>0.002</v>
@@ -56533,7 +56533,7 @@
         <v>5000.0</v>
       </c>
       <c r="M193">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N193">
         <v>0.002</v>
@@ -56589,7 +56589,7 @@
         <v>5000.0</v>
       </c>
       <c r="M194">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N194">
         <v>0.002</v>
@@ -56645,7 +56645,7 @@
         <v>5000.0</v>
       </c>
       <c r="M195">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N195">
         <v>0.002</v>
@@ -56701,7 +56701,7 @@
         <v>5000.0</v>
       </c>
       <c r="M196">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N196">
         <v>0.002</v>
@@ -56757,7 +56757,7 @@
         <v>5000.0</v>
       </c>
       <c r="M197">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N197">
         <v>0.002</v>
@@ -56813,7 +56813,7 @@
         <v>5000.0</v>
       </c>
       <c r="M198">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N198">
         <v>0.002</v>
@@ -56869,7 +56869,7 @@
         <v>5000.0</v>
       </c>
       <c r="M199">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N199">
         <v>0.002</v>
@@ -56925,7 +56925,7 @@
         <v>5000.0</v>
       </c>
       <c r="M200">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N200">
         <v>0.002</v>
@@ -56981,7 +56981,7 @@
         <v>5000.0</v>
       </c>
       <c r="M201">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N201">
         <v>0.002</v>
@@ -57037,7 +57037,7 @@
         <v>5000.0</v>
       </c>
       <c r="M202">
-        <v>4.355683581814267e-9</v>
+        <v>4.355683581814266e-9</v>
       </c>
       <c r="N202">
         <v>0.002</v>
